--- a/data/trans_bre/P16A_n_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R3-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.391390680258271</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.454583726818166</v>
+        <v>1.454583726818165</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>3.615453504785854</v>
@@ -649,7 +649,7 @@
         <v>0.7580166421611606</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6737682039309747</v>
+        <v>0.6737682039309745</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2889641130202567</v>
+        <v>0.2488992454451762</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.38885721139433</v>
+        <v>-2.618915164564885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8130016614081119</v>
+        <v>-0.975328304057128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5131440922199076</v>
+        <v>-0.7376374278002789</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3562186928176168</v>
+        <v>-0.2863472382735768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6893442855035437</v>
+        <v>-0.7746630032844274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.441940984840624</v>
+        <v>-0.4870010547240205</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2061651262430227</v>
+        <v>-0.295644297883417</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.00351125359184</v>
+        <v>4.983548550322652</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.965318342927183</v>
+        <v>3.222863669251438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.13823006867833</v>
+        <v>4.033424112189621</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.564493829349687</v>
+        <v>3.249545427129278</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3.438134650031604</v>
+        <v>3.443504779392332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.344296912034615</v>
+        <v>4.6113968977829</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.090293355412819</v>
+        <v>2.584252772575239</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +735,7 @@
         <v>1.735663391067888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.642533774578163</v>
+        <v>3.642533774578162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.223902042486459</v>
@@ -747,7 +747,7 @@
         <v>1.110803099061272</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9906733273873868</v>
+        <v>0.9906733273873864</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7574351152852263</v>
+        <v>0.8964950213808239</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3033990149542496</v>
+        <v>-0.3757511111929959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.0672371173043901</v>
+        <v>-0.05055914399792637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9412620496501757</v>
+        <v>1.073170354083351</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1656522355675747</v>
+        <v>0.2896317680985647</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07984967679799047</v>
+        <v>-0.1146212739458182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07940809344510176</v>
+        <v>-0.08814920363349675</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1737791907397192</v>
+        <v>0.1576352734287708</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.764419551004282</v>
+        <v>4.882203065769296</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.79933262903643</v>
+        <v>5.506611640833682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.810373932271992</v>
+        <v>3.760303614960325</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.05678289815424</v>
+        <v>6.230202502922909</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.144869884633874</v>
+        <v>8.097938963287557</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.351758450411585</v>
+        <v>2.346653668448341</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.084362105407686</v>
+        <v>4.929964568891583</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.515459792976274</v>
+        <v>2.72280368440962</v>
       </c>
     </row>
     <row r="10">
@@ -858,22 +858,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.49943850779163</v>
+        <v>-1.206568743915078</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.005757880788926731</v>
+        <v>-0.01273893233020286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.09796716860407581</v>
+        <v>0.08317591236701363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.706785057805654</v>
+        <v>2.592674591311122</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7231229262548349</v>
+      </c>
       <c r="J11" s="6" t="n">
-        <v>0.2976782586372924</v>
+        <v>0.2777274681314196</v>
       </c>
     </row>
     <row r="12">
@@ -887,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.148470734840085</v>
+        <v>2.999659095937705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.690082135722858</v>
+        <v>3.499092666032384</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.09094439152876</v>
+        <v>9.891627978379525</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.891595865870408</v>
+        <v>1.861271291327095</v>
       </c>
     </row>
     <row r="13">
@@ -923,7 +925,7 @@
         <v>4.951028778250443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.009120555362995</v>
+        <v>2.009120555362997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.893140255252647</v>
@@ -935,7 +937,7 @@
         <v>2.016398236785839</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3797814537371911</v>
+        <v>0.3797814537371914</v>
       </c>
     </row>
     <row r="14">
@@ -946,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1564056638645805</v>
+        <v>-0.1843974860306095</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.846884944873073</v>
+        <v>3.805405574625814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.868090962944326</v>
+        <v>2.135871133667838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.288449240067012</v>
+        <v>-0.9882697366086817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4719631298152585</v>
+        <v>-0.4861610390090445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9488275125104551</v>
+        <v>1.027115505398045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4380298942489444</v>
+        <v>0.5432913454880288</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1766378619454702</v>
+        <v>-0.1547602299774545</v>
       </c>
     </row>
     <row r="15">
@@ -978,26 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.328715890555113</v>
+        <v>3.295108469841154</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.555584107872036</v>
+        <v>10.00447648654218</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.464075429069615</v>
+        <v>8.551253343397159</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.4991514944464</v>
-      </c>
-      <c r="G15" s="6" t="inlineStr"/>
+        <v>4.763777323121712</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>12.15697830027346</v>
+      </c>
       <c r="H15" s="6" t="n">
-        <v>18.29365692732674</v>
+        <v>22.47451939120448</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.683671335012566</v>
+        <v>5.888380073203277</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.254758205396341</v>
+        <v>1.387400230681092</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1025,7 @@
         <v>3.494266052626569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.362567421449493</v>
+        <v>7.362567421449488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>3.559590967109423</v>
@@ -1033,7 +1037,7 @@
         <v>2.663408122878401</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.282624957576238</v>
+        <v>1.282624957576237</v>
       </c>
     </row>
     <row r="17">
@@ -1044,26 +1048,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.016865113669184</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.885070640670355</v>
+        <v>4.221555970824311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6480248446456542</v>
+        <v>0.7509607556857747</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.944682475207303</v>
+        <v>3.834786740665303</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>0.4773672593869576</v>
+        <v>0.477048056808068</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1457823123553947</v>
+        <v>-0.06241408100687847</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4796656958235452</v>
+        <v>0.4452021223196991</v>
       </c>
     </row>
     <row r="18">
@@ -1074,26 +1078,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.344028546688769</v>
+        <v>4.472478690898626</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.51500279838615</v>
+        <v>16.07904680198773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.281438741819852</v>
+        <v>7.189827543732973</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.88844437039892</v>
+        <v>11.04154524773341</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>5.414117553257529</v>
+        <v>6.914385441179745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16.04568955356957</v>
+        <v>15.88166095675208</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.728066414003704</v>
+        <v>2.70252055484556</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1121,7 @@
         <v>3.708462730457534</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.103450784238408</v>
+        <v>3.103450784238401</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6791585169449502</v>
@@ -1129,7 +1133,7 @@
         <v>1.527106836708372</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3104051848026455</v>
+        <v>0.3104051848026447</v>
       </c>
     </row>
     <row r="20">
@@ -1140,26 +1144,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.8408664412169796</v>
+        <v>-0.6590044024240372</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.4379630364467808</v>
+        <v>-0.3892960532323424</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4384678900126584</v>
+        <v>0.2767671884351068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.7289746370726338</v>
+        <v>-0.7806150044819671</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.7001632451514277</v>
+        <v>-0.6926648441733059</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04713551207053616</v>
+        <v>-0.1587749291664279</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06798516833007279</v>
+        <v>-0.07955127082058512</v>
       </c>
     </row>
     <row r="21">
@@ -1170,24 +1174,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.244651291582203</v>
+        <v>2.262957910841877</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.708954449407702</v>
+        <v>3.666911057165953</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.165537635397739</v>
+        <v>7.641023286852413</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.982562220628225</v>
+        <v>6.562031202019482</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.560357735501044</v>
+        <v>5.001664882360225</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8259052390401207</v>
+        <v>0.809387185838956</v>
       </c>
     </row>
     <row r="22">
@@ -1234,28 +1238,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.738069552032128</v>
+        <v>-2.02492712534927</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2883806769518658</v>
+        <v>-0.3309259559793898</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.286271949800186</v>
+        <v>-1.392659573133289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.18043642162681</v>
+        <v>5.085436793807954</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5830488275931478</v>
+        <v>-0.6268909870926695</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2203968020126024</v>
+        <v>-0.1915077471207345</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3821502290669319</v>
+        <v>-0.4131675489943467</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.133732381282091</v>
+        <v>1.143880154226906</v>
       </c>
     </row>
     <row r="24">
@@ -1266,28 +1270,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.333824997093057</v>
+        <v>1.304352334221192</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.010064626225951</v>
+        <v>2.884541364448079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.739479540291665</v>
+        <v>2.541386152503175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.580367750129767</v>
+        <v>9.663803878989768</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.055479605631788</v>
+        <v>1.040541060204829</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.790727974387763</v>
+        <v>3.59259664005852</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.504793195975608</v>
+        <v>1.507834076764422</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>3.951817997045861</v>
+        <v>4.024985043368067</v>
       </c>
     </row>
     <row r="25">
@@ -1311,7 +1315,7 @@
         <v>4.298364760314458</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.933176562692116</v>
+        <v>4.933176562692119</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4200738347895766</v>
@@ -1323,7 +1327,7 @@
         <v>5.365226103412991</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.101460572641822</v>
+        <v>1.101460572641823</v>
       </c>
     </row>
     <row r="26">
@@ -1334,28 +1338,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.6245758847754899</v>
+        <v>-0.7000337908546934</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.374128129589725</v>
+        <v>2.447290251976637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.680290466923627</v>
+        <v>2.601891964932164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.921926781679163</v>
+        <v>2.907846915209229</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2194552444046003</v>
+        <v>-0.1971785887390621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9165550469248237</v>
+        <v>1.050911062616744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.613467933815291</v>
+        <v>1.439303496312666</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5331948931391691</v>
+        <v>0.5315379614238671</v>
       </c>
     </row>
     <row r="27">
@@ -1366,28 +1370,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.051671567656954</v>
+        <v>3.195727870719002</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.926202198007992</v>
+        <v>5.962785541944926</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.279031944144231</v>
+        <v>6.110454972477738</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.084184764883202</v>
+        <v>7.129262734169285</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.431721387977861</v>
+        <v>1.528707364233661</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9.830271956326058</v>
+        <v>11.41192493321629</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>16.88716885242752</v>
+        <v>17.10327198869157</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.995252945905214</v>
+        <v>1.988706758195666</v>
       </c>
     </row>
     <row r="28">
@@ -1411,7 +1415,7 @@
         <v>2.664944335383276</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.803970876754051</v>
+        <v>4.803970876754052</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7413116424889485</v>
@@ -1423,7 +1427,7 @@
         <v>1.607764179158136</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>1.013726382682455</v>
+        <v>1.013726382682456</v>
       </c>
     </row>
     <row r="29">
@@ -1434,28 +1438,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4370385055287844</v>
+        <v>0.4331567837319616</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.234066295793484</v>
+        <v>2.28876420943865</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.813085961400754</v>
+        <v>1.898942447871949</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.781352128451561</v>
+        <v>3.824989372939509</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2314395544178215</v>
+        <v>0.2392423191059002</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9498400735249108</v>
+        <v>1.037864303163798</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8648178125621229</v>
+        <v>0.9509915547568483</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.717284186816079</v>
+        <v>0.7445915977346736</v>
       </c>
     </row>
     <row r="30">
@@ -1466,28 +1470,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.856095240222057</v>
+        <v>1.791963914232418</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.098865014436468</v>
+        <v>4.145283943500021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.520249547172828</v>
+        <v>3.558512711702903</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.713471148169239</v>
+        <v>5.788112867287217</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.57881662039282</v>
+        <v>1.563372820555463</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2.825000434649349</v>
+        <v>2.962711202679387</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.547173991484649</v>
+        <v>2.705564374861009</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.337324330260659</v>
+        <v>1.381975486532008</v>
       </c>
     </row>
     <row r="31">
